--- a/report/abbviecare_responses.xlsx
+++ b/report/abbviecare_responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,15 +420,15 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://preview.abbviecare.fr/libs/granite/csrf/token.json</v>
+        <v>https://preview.abbviecare.fr/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0ivu3f&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbviecare.fr%2Fbasic-login.html&amp;category=</v>
+        <v>https://preview.abbviecare.fr/libs/granite/csrf/token.json</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://preview.abbviecare.fr/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-care-ous/fr/fr/basic-login/jcr:content</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-header-publish.min.css</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -444,15 +444,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://preview.abbviecare.fr/bin/public/abbvie-commons/basic-login</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.css</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://preview.abbviecare.fr/</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.css</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-header-publish.min.css</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/button-link/v2/button-link/clientlibs.min.js</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.css</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-footer-publish.min.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.css</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/button-link/v2/button-link/clientlibs.min.js</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-footer-publish.min.js</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.js</v>
+        <v>https://consent.trustarc.com/v2/notice/0ivu3f</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://preview.abbviecare.fr/</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.js</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Light.woff2</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://consent.trustarc.com/v2/notice/0ivu3f</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Bold.woff2</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Light.woff2</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Regular.woff2</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Bold.woff2</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Regular.woff2</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/16:19:48.8270ivu3f_AbbVieID-logo.png</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -588,15 +588,15 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://consent.trustarc.com/v2/asset/16:19:48.8270ivu3f_AbbVieID-logo.png</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.29477825510117084&amp;session=f73ab2cc-6b3b-4eb3-8280-502fd2fe0a4a&amp;userType=NEW</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0ivu3f&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbviecare.fr%2F&amp;category=</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://preview.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner_logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7043335869565213&amp;session=f73ab2cc-6b3b-4eb3-8280-502fd2fe0a4a&amp;userType=NEW</v>
       </c>
       <c r="B26">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
@@ -620,23 +620,23 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.13061228908786382&amp;session=9d7cd6a7-fcd2-48b2-b447-bd44613de60e&amp;userType=NEW</v>
+        <v>https://preview.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner-desktop.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
       </c>
       <c r="B28">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.33496925566090074&amp;session=9d7cd6a7-fcd2-48b2-b447-bd44613de60e&amp;userType=NEW</v>
+        <v>https://preview.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner_logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B29">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0ivu3f&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbviecare.fr%2F&amp;category=</v>
+        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/external-link-popup/v2/external-link-popup/clientlibs.min.js</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://preview.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/external-link-popup/v2/external-link-popup/clientlibs.min.js</v>
+        <v>https://preview.abbviecare.fr/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-care-ous/fr/fr/jcr:content</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://preview.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner-desktop.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+        <v>https://preview.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/banner-content/column_control/par1-100col/image_extension/item_1.coreimg.png/1663712714254-banner_logo.png</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -660,31 +660,15 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://preview.abbviecare.fr/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-care-ous/fr/fr/jcr:content</v>
+        <v>https://preview.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/bg-image/item_1.coreimg.jpg/1663712702019-banner-desktop.jpg</v>
       </c>
       <c r="B33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>https://preview.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/banner-content/column_control/par1-100col/image_extension/item_1.coreimg.png/1663712714254-banner_logo.png</v>
-      </c>
-      <c r="B34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>https://preview.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/bg-image/item_1.coreimg.jpg/1663712702019-banner-desktop.jpg</v>
-      </c>
-      <c r="B35">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B33"/>
   </ignoredErrors>
 </worksheet>
 </file>